--- a/Sheets/SE Questionnaire Final.xlsx
+++ b/Sheets/SE Questionnaire Final.xlsx
@@ -58,7 +58,7 @@
     <t>What size are the events and relations expected to have in a single DCR Graph?</t>
   </si>
   <si>
-    <t>Vector graphics for easy scaling would be preferred. Use-case is in scientific papers so the activities should have enough space inside of them for 50 readable characters .</t>
+    <t>Vector graphics for easy scaling would be preferred. Use-case is in scientific papers so the activities should have enough space inside of them for 50 readable characters.</t>
   </si>
   <si>
     <t>Usability</t>
@@ -139,7 +139,7 @@
     <t>What should be the maximum number of graphs that can be sent as input? If there is no limit, what is the number of graphs for which we would expect top-performance</t>
   </si>
   <si>
-    <t>Immediate response, especially for the 2nd version that supports dragging, in the 1st version performance is not that important</t>
+    <t>Just one at a time.</t>
   </si>
   <si>
     <t>Performance</t>
@@ -155,7 +155,7 @@
 (Process time of a normal-sized graph)</t>
   </si>
   <si>
-    <t>Just one at a time.</t>
+    <t>Immediate response, especially for the 2nd version that supports dragging, in the 1st version performance is not that important</t>
   </si>
   <si>
     <t>What kind of documentation is required?</t>
@@ -210,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -225,15 +225,8 @@
     <font/>
     <font>
       <sz val="11.0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14.0"/>
     </font>
     <font>
       <b/>
@@ -244,14 +237,10 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -410,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -422,102 +411,93 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -786,7 +766,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="9"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -809,16 +789,16 @@
       <c r="AA2" s="5"/>
     </row>
     <row r="3" ht="30.75" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -841,17 +821,17 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -874,10 +854,10 @@
       <c r="AA4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="8"/>
@@ -906,17 +886,17 @@
       <c r="AA5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -939,13 +919,13 @@
       <c r="AA6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -976,9 +956,9 @@
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1002,18 +982,18 @@
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1034,21 +1014,21 @@
       <c r="AA9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1069,21 +1049,21 @@
       <c r="AA10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1104,18 +1084,18 @@
       <c r="AA11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="8"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1136,18 +1116,18 @@
       <c r="AA12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="8"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1168,19 +1148,19 @@
       <c r="AA13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1201,18 +1181,18 @@
       <c r="AA14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1233,18 +1213,18 @@
       <c r="AA15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="8"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1265,22 +1245,22 @@
       <c r="AA16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1301,18 +1281,18 @@
       <c r="AA17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1333,20 +1313,20 @@
       <c r="AA18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="D19" s="31"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1367,20 +1347,21 @@
       <c r="AA19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1401,18 +1382,18 @@
       <c r="AA20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="8"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1433,18 +1414,18 @@
       <c r="AA21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="8"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1465,20 +1446,20 @@
       <c r="AA22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1499,20 +1480,20 @@
       <c r="AA23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -1533,18 +1514,18 @@
       <c r="AA24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="8"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -1565,18 +1546,18 @@
       <c r="AA25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="8"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -1597,20 +1578,20 @@
       <c r="AA26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="D27" s="19"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -1631,15 +1612,15 @@
       <c r="AA27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -1668,9 +1649,9 @@
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -1691,18 +1672,18 @@
       <c r="AA29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -1723,16 +1704,16 @@
       <c r="AA30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="9"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -1753,15 +1734,15 @@
       <c r="AA31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -1782,15 +1763,15 @@
       <c r="AA32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -1811,10 +1792,10 @@
       <c r="AA33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="5"/>
@@ -1840,10 +1821,10 @@
       <c r="AA34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="5"/>
@@ -1869,10 +1850,10 @@
       <c r="AA35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="5"/>
@@ -1898,10 +1879,10 @@
       <c r="AA36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
@@ -1927,10 +1908,10 @@
       <c r="AA37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5"/>
@@ -1956,10 +1937,10 @@
       <c r="AA38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="5"/>
@@ -1985,10 +1966,10 @@
       <c r="AA39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5"/>
@@ -2014,10 +1995,10 @@
       <c r="AA40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
@@ -2043,10 +2024,10 @@
       <c r="AA41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="5"/>
@@ -2072,10 +2053,10 @@
       <c r="AA42" s="5"/>
     </row>
     <row r="43">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
@@ -2101,10 +2082,10 @@
       <c r="AA43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="5"/>
@@ -2130,10 +2111,10 @@
       <c r="AA44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="5"/>
@@ -2159,10 +2140,10 @@
       <c r="AA45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="5"/>
@@ -2188,10 +2169,10 @@
       <c r="AA46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="5"/>
@@ -2217,10 +2198,10 @@
       <c r="AA47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="5"/>
@@ -2246,10 +2227,10 @@
       <c r="AA48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="5"/>
@@ -2275,10 +2256,10 @@
       <c r="AA49" s="5"/>
     </row>
     <row r="50">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="5"/>
@@ -2304,10 +2285,10 @@
       <c r="AA50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="5"/>
@@ -2333,10 +2314,10 @@
       <c r="AA51" s="5"/>
     </row>
     <row r="52">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="5"/>
@@ -2362,10 +2343,10 @@
       <c r="AA52" s="5"/>
     </row>
     <row r="53">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="5"/>
@@ -2391,10 +2372,10 @@
       <c r="AA53" s="5"/>
     </row>
     <row r="54">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="5"/>
@@ -2420,10 +2401,10 @@
       <c r="AA54" s="5"/>
     </row>
     <row r="55">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="5"/>
@@ -2449,10 +2430,10 @@
       <c r="AA55" s="5"/>
     </row>
     <row r="56">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="5"/>
@@ -2478,10 +2459,10 @@
       <c r="AA56" s="5"/>
     </row>
     <row r="57">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="5"/>
@@ -2507,10 +2488,10 @@
       <c r="AA57" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="5"/>
@@ -2536,10 +2517,10 @@
       <c r="AA58" s="5"/>
     </row>
     <row r="59">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="5"/>
@@ -30174,6 +30155,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="C24:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="A29:D29"/>
@@ -30186,13 +30174,6 @@
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="C20:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
